--- a/Semestralizacao_medicina/semestre.xlsx
+++ b/Semestralizacao_medicina/semestre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\RGitRep\Semestralizacao_medicina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C96BDE75-A46F-461A-A3EF-A105C24D91EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E677D1-A42E-4189-A5A8-3E5BB125B1E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B3800647-238C-497D-B56F-A5B5EF978018}"/>
+    <workbookView xWindow="3540" yWindow="2604" windowWidth="17280" windowHeight="9072" xr2:uid="{B3800647-238C-497D-B56F-A5B5EF978018}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -561,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -583,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
